--- a/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/BDPbES/BAU Dispatch Priority by Elec Source.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssy02/Desktop/Brazil/eps-brazil-3.4.1/InputData/elec/BDPbES/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7DE24F-9F80-FA44-BBDB-DA4B4270FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,9 +216,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,44 +461,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -496,21 +510,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -623,7 +639,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -771,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -919,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2251,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2399,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2547,7 +2563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
